--- a/焦炭/eta/焦化厂利润_月度数据.xlsx
+++ b/焦炭/eta/焦化厂利润_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-247.1</v>
+        <v>-168.6</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-239.4</v>
+        <v>-245.1</v>
       </c>
       <c r="C3" t="n">
-        <v>-189.6</v>
+        <v>-188.8</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-192</v>
       </c>
       <c r="C4" t="n">
-        <v>-141.3</v>
+        <v>-157.7</v>
       </c>
     </row>
     <row r="5">
